--- a/data/trans_orig/P37-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>274482</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>247141</v>
+        <v>248469</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>301129</v>
+        <v>302555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2660425778456119</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2395416962756604</v>
+        <v>0.2408293820404425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2918695453430472</v>
+        <v>0.2932517417481469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>375</v>
@@ -765,19 +765,19 @@
         <v>390579</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>359142</v>
+        <v>357936</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>423195</v>
+        <v>425174</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2969930404253388</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2730879740605586</v>
+        <v>0.2721712742296153</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3217939024967825</v>
+        <v>0.3232984215265727</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>662</v>
@@ -786,19 +786,19 @@
         <v>665061</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>624692</v>
+        <v>625522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>708914</v>
+        <v>707623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2833865053562091</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2661848668237235</v>
+        <v>0.2665387540936572</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3020724692903551</v>
+        <v>0.3015221748455074</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>757241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>730594</v>
+        <v>729168</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>784582</v>
+        <v>783254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7339574221543881</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7081304546569528</v>
+        <v>0.7067482582518531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7604583037243394</v>
+        <v>0.7591706179595572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>916</v>
@@ -836,19 +836,19 @@
         <v>924534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>891918</v>
+        <v>889939</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>955971</v>
+        <v>957177</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7030069595746613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6782060975032175</v>
+        <v>0.6767015784734275</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7269120259394416</v>
+        <v>0.7278287257703848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1667</v>
@@ -857,19 +857,19 @@
         <v>1681774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1637921</v>
+        <v>1639212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1722143</v>
+        <v>1721313</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7166134946437909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6979275307096449</v>
+        <v>0.6984778251544926</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7338151331762764</v>
+        <v>0.7334612459063425</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>117311</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97936</v>
+        <v>97244</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140798</v>
+        <v>140253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06931226839556687</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05786497314096358</v>
+        <v>0.05745579081716985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08318936359753897</v>
+        <v>0.08286746617263552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -982,19 +982,19 @@
         <v>99953</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80860</v>
+        <v>81614</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121490</v>
+        <v>120397</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06303104467240853</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0509906260733021</v>
+        <v>0.05146618524591269</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07661250635051703</v>
+        <v>0.07592306826939735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>206</v>
@@ -1003,19 +1003,19 @@
         <v>217264</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>185610</v>
+        <v>190865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243864</v>
+        <v>248765</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06627389717038515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05661818253824686</v>
+        <v>0.05822121280315379</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07438787470576774</v>
+        <v>0.07588287576049686</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1575187</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1551700</v>
+        <v>1552245</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1594562</v>
+        <v>1595254</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9306877316044332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9168106364024612</v>
+        <v>0.9171325338273648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9421350268590366</v>
+        <v>0.9425442091828304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1460</v>
@@ -1053,19 +1053,19 @@
         <v>1485823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1464286</v>
+        <v>1465379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1504916</v>
+        <v>1504162</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9369689553275915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9233874936494836</v>
+        <v>0.9240769317306035</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9490093739266986</v>
+        <v>0.9485338147540877</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2994</v>
@@ -1074,19 +1074,19 @@
         <v>3061010</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3034410</v>
+        <v>3029509</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3092664</v>
+        <v>3087409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9337261028296149</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9256121252942322</v>
+        <v>0.9241171242395032</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9433818174617531</v>
+        <v>0.9417787871968462</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>62693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46271</v>
+        <v>47497</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78566</v>
+        <v>78910</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1138713094450572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08404425177639049</v>
+        <v>0.08627128839564106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1427031909075775</v>
+        <v>0.1433277190911867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1199,19 +1199,19 @@
         <v>44810</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33774</v>
+        <v>34355</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58261</v>
+        <v>58977</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09405702247053832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07089248519406566</v>
+        <v>0.07211198463013316</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1222903871649097</v>
+        <v>0.1237941228408374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -1220,19 +1220,19 @@
         <v>107503</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88583</v>
+        <v>89482</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128869</v>
+        <v>129670</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1046794497329893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08625625707241785</v>
+        <v>0.08713201438815588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1254848454526481</v>
+        <v>0.1262645675459571</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>487865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>471992</v>
+        <v>471648</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>504287</v>
+        <v>503061</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8861286905549428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8572968090924225</v>
+        <v>0.8566722809088131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9159557482236095</v>
+        <v>0.9137287116043589</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>409</v>
@@ -1270,19 +1270,19 @@
         <v>431602</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>418151</v>
+        <v>417435</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>442638</v>
+        <v>442057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9059429775294617</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8777096128350902</v>
+        <v>0.8762058771591624</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9291075148059343</v>
+        <v>0.9278880153698661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>877</v>
@@ -1291,19 +1291,19 @@
         <v>919466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>898100</v>
+        <v>897299</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>938386</v>
+        <v>937487</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8953205502670107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8745151545473518</v>
+        <v>0.8737354324540431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9137437429275821</v>
+        <v>0.9128679856118441</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>454486</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>419419</v>
+        <v>415391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>493056</v>
+        <v>492356</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1387836733916209</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1280754041279349</v>
+        <v>0.1268455631154454</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.150561539572192</v>
+        <v>0.1503478263911714</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>510</v>
@@ -1416,19 +1416,19 @@
         <v>535342</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>495536</v>
+        <v>493950</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>582208</v>
+        <v>578391</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1585118970466272</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1467255896697603</v>
+        <v>0.146255739206859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1723884966795035</v>
+        <v>0.1712582790597645</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>969</v>
@@ -1437,19 +1437,19 @@
         <v>989828</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>930100</v>
+        <v>932832</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1050565</v>
+        <v>1047871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1487998107173084</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1398209032903083</v>
+        <v>0.1402316234895329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1579303435299776</v>
+        <v>0.1575253929321466</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2820293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2781723</v>
+        <v>2782423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2855360</v>
+        <v>2859388</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8612163266083791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8494384604278079</v>
+        <v>0.8496521736088284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8719245958720651</v>
+        <v>0.8731544368845545</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2785</v>
@@ -1487,19 +1487,19 @@
         <v>2841958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2795092</v>
+        <v>2798909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2881764</v>
+        <v>2883350</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8414881029533728</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8276115033204966</v>
+        <v>0.8287417209402355</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8532744103302398</v>
+        <v>0.8537442607931413</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5538</v>
@@ -1508,19 +1508,19 @@
         <v>5662251</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5601514</v>
+        <v>5604208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5721979</v>
+        <v>5719247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8512001892826916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8420696564700225</v>
+        <v>0.8424746070678535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8601790967096917</v>
+        <v>0.8597683765104674</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>341597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>312929</v>
+        <v>313244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>372282</v>
+        <v>376470</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3508539468445729</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3214091412311278</v>
+        <v>0.3217329494691799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3823707754193976</v>
+        <v>0.3866717594122476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>423</v>
@@ -1872,19 +1872,19 @@
         <v>449268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>415886</v>
+        <v>413046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>485829</v>
+        <v>484502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3358263973392539</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3108740246081855</v>
+        <v>0.3087506142200301</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3631558179547726</v>
+        <v>0.3621642282043697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>734</v>
@@ -1893,19 +1893,19 @@
         <v>790864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>745978</v>
+        <v>743378</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>836096</v>
+        <v>837144</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3421563193033576</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3227368502442345</v>
+        <v>0.3216121917013517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3617251731762438</v>
+        <v>0.362178719045899</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>632019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>601334</v>
+        <v>597146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>660687</v>
+        <v>660372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6491460531554272</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6176292245806024</v>
+        <v>0.6133282405877524</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6785908587688722</v>
+        <v>0.67826705053082</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>824</v>
@@ -1943,19 +1943,19 @@
         <v>888529</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>851968</v>
+        <v>853295</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>921911</v>
+        <v>924751</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6641736026607461</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6368441820452273</v>
+        <v>0.6378357717956302</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6891259753918144</v>
+        <v>0.6912493857799699</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1420</v>
@@ -1964,19 +1964,19 @@
         <v>1520548</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1475316</v>
+        <v>1474268</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1565434</v>
+        <v>1568034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6578436806966425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.638274826823756</v>
+        <v>0.637821280954101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6772631497557653</v>
+        <v>0.6783878082986483</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>209883</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183056</v>
+        <v>180330</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>242172</v>
+        <v>237051</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1070297699388057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09334929616608564</v>
+        <v>0.09195947407079365</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.123495554504358</v>
+        <v>0.1208844050731408</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -2089,19 +2089,19 @@
         <v>157109</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132259</v>
+        <v>131469</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>181207</v>
+        <v>185170</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08943244516910884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07528681763816619</v>
+        <v>0.07483744388560709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1031499054561543</v>
+        <v>0.1054059267368962</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>333</v>
@@ -2110,19 +2110,19 @@
         <v>366992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>329840</v>
+        <v>329687</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>403747</v>
+        <v>407504</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09871448875396635</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08872125072376194</v>
+        <v>0.08868024686970644</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1086011143034436</v>
+        <v>0.1096117614897706</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1751092</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1718803</v>
+        <v>1723924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1777919</v>
+        <v>1780645</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8929702300611942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8765044454956421</v>
+        <v>0.8791155949268592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9066507038339143</v>
+        <v>0.9080405259292064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1492</v>
@@ -2160,19 +2160,19 @@
         <v>1599623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1575525</v>
+        <v>1571562</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1624473</v>
+        <v>1625263</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9105675548308911</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8968500945438458</v>
+        <v>0.8945940732631037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.924713182361834</v>
+        <v>0.925162556114392</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3154</v>
@@ -2181,19 +2181,19 @@
         <v>3350715</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3313960</v>
+        <v>3310203</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3387867</v>
+        <v>3388020</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9012855112460336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8913988856965563</v>
+        <v>0.8903882385102292</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9112787492762382</v>
+        <v>0.9113197531302936</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>52691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40425</v>
+        <v>38964</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69631</v>
+        <v>69913</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.109735363576937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08418875676576636</v>
+        <v>0.08114589162477244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1450132235549841</v>
+        <v>0.1456018402650463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -2306,19 +2306,19 @@
         <v>41866</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29934</v>
+        <v>29750</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56040</v>
+        <v>56383</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09128516439203953</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0652690403399642</v>
+        <v>0.06486637930184579</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1221890350492932</v>
+        <v>0.1229384241586961</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -2327,19 +2327,19 @@
         <v>94558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76604</v>
+        <v>76720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116550</v>
+        <v>117723</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1007218846066182</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08159780514780506</v>
+        <v>0.08172152520722793</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1241478658982398</v>
+        <v>0.1253975374218626</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>427476</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>410536</v>
+        <v>410254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>439742</v>
+        <v>441203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.890264636423063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8549867764450159</v>
+        <v>0.854398159734954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9158112432342336</v>
+        <v>0.9188541083752277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>376</v>
@@ -2377,19 +2377,19 @@
         <v>416765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>402591</v>
+        <v>402248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>428697</v>
+        <v>428881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9087148356079605</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8778109649507067</v>
+        <v>0.8770615758413041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9347309596600357</v>
+        <v>0.9351336206981545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>767</v>
@@ -2398,19 +2398,19 @@
         <v>844240</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>822248</v>
+        <v>821075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>862194</v>
+        <v>862078</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8992781153933819</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8758521341017603</v>
+        <v>0.8746024625781375</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.918402194852195</v>
+        <v>0.918278474792772</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>604171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>560610</v>
+        <v>552995</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>655328</v>
+        <v>654009</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1769293725002693</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1641726959087686</v>
+        <v>0.161942807537746</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1919106581551712</v>
+        <v>0.1915242288614964</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>601</v>
@@ -2523,19 +2523,19 @@
         <v>648242</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>601382</v>
+        <v>603879</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>697019</v>
+        <v>699701</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1824411353458097</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1692529086244788</v>
+        <v>0.1699554270399832</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1961687843190858</v>
+        <v>0.196923590794533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1149</v>
@@ -2544,19 +2544,19 @@
         <v>1252413</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1183290</v>
+        <v>1189032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1318870</v>
+        <v>1319709</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1797399931224342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1698196939481769</v>
+        <v>0.170643889373432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.189277548574894</v>
+        <v>0.1893979353810026</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2810587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2759430</v>
+        <v>2760749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2854148</v>
+        <v>2861763</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8230706274997307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8080893418448288</v>
+        <v>0.8084757711385037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8358273040912314</v>
+        <v>0.8380571924622541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2692</v>
@@ -2594,19 +2594,19 @@
         <v>2904917</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2856140</v>
+        <v>2853458</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2951777</v>
+        <v>2949280</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8175588646541904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8038312156809142</v>
+        <v>0.8030764092054674</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8307470913755211</v>
+        <v>0.8300445729600169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5341</v>
@@ -2615,19 +2615,19 @@
         <v>5715504</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5649047</v>
+        <v>5648208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5784627</v>
+        <v>5778885</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8202600068775657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8107224514251059</v>
+        <v>0.8106020646189973</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.830180306051823</v>
+        <v>0.829356110626568</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>255917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>230356</v>
+        <v>228990</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>282362</v>
+        <v>281682</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3392557585908133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3053708512164268</v>
+        <v>0.3035611581672312</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3743127518586568</v>
+        <v>0.373412051676346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>301</v>
@@ -2979,19 +2979,19 @@
         <v>353280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>318244</v>
+        <v>324267</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>386740</v>
+        <v>390316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3551763146013739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3199526776060477</v>
+        <v>0.3260078569444548</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3888167762304799</v>
+        <v>0.392411692155391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>577</v>
@@ -3000,19 +3000,19 @@
         <v>609196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>567369</v>
+        <v>567538</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>648816</v>
+        <v>647005</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3483097780655898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3243952034716369</v>
+        <v>0.3244914543817038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3709623084113982</v>
+        <v>0.3699271169978059</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>498430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>471985</v>
+        <v>472665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>523991</v>
+        <v>525357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6607442414091867</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6256872481413432</v>
+        <v>0.6265879483236539</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6946291487835732</v>
+        <v>0.6964388418327687</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>591</v>
@@ -3050,19 +3050,19 @@
         <v>641380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>607920</v>
+        <v>604344</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>676416</v>
+        <v>670393</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.644823685398626</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6111832237695203</v>
+        <v>0.6075883078446088</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6800473223939525</v>
+        <v>0.6739921430555446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1077</v>
@@ -3071,19 +3071,19 @@
         <v>1139811</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1100191</v>
+        <v>1102002</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1181638</v>
+        <v>1181469</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6516902219344102</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6290376915886019</v>
+        <v>0.6300728830021941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6756047965283634</v>
+        <v>0.6755085456182964</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>216678</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>187647</v>
+        <v>190299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>244511</v>
+        <v>247932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1043534004942094</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09037210566061425</v>
+        <v>0.09164910250619758</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1177581618885841</v>
+        <v>0.1194057360274869</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>173</v>
@@ -3196,19 +3196,19 @@
         <v>202502</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>173881</v>
+        <v>175417</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>231396</v>
+        <v>235545</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1018466673481088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08745192249944359</v>
+        <v>0.0882246517587856</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1163789352479198</v>
+        <v>0.1184655907059801</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>378</v>
@@ -3217,19 +3217,19 @@
         <v>419180</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>378444</v>
+        <v>379036</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>461951</v>
+        <v>463097</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1031271953541586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09310528491911363</v>
+        <v>0.09325090423631845</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.113649871967618</v>
+        <v>0.113931750223474</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1859707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1831874</v>
+        <v>1828453</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1888738</v>
+        <v>1886086</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8956465995057906</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.882241838111416</v>
+        <v>0.8805942639725131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9096278943393857</v>
+        <v>0.9083508974938027</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1735</v>
@@ -3267,19 +3267,19 @@
         <v>1785798</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1756904</v>
+        <v>1752755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1814419</v>
+        <v>1812883</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8981533326518912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8836210647520801</v>
+        <v>0.8815344092940198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9125480775005567</v>
+        <v>0.9117753482412143</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3482</v>
@@ -3288,19 +3288,19 @@
         <v>3645505</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3602734</v>
+        <v>3601588</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3686241</v>
+        <v>3685649</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8968728046458414</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.886350128032382</v>
+        <v>0.8860682497765259</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9068947150808864</v>
+        <v>0.9067490957636815</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>58844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44004</v>
+        <v>46768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77666</v>
+        <v>76702</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1075982246867026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08046362007744565</v>
+        <v>0.08551643717070544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1420158336753913</v>
+        <v>0.1402522213366307</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3413,19 +3413,19 @@
         <v>56059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41903</v>
+        <v>42584</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72193</v>
+        <v>70632</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1020858893651966</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07630611913572952</v>
+        <v>0.07754640321434089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1314660653244893</v>
+        <v>0.1286228902931867</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -3434,19 +3434,19 @@
         <v>114904</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93954</v>
+        <v>92969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136826</v>
+        <v>136989</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1048363885533212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08572221036508709</v>
+        <v>0.08482344048614497</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1248382096671919</v>
+        <v>0.1249869266662538</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>488042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>469220</v>
+        <v>470184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>502882</v>
+        <v>500118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8924017753132975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8579841663246087</v>
+        <v>0.8597477786633699</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9195363799225545</v>
+        <v>0.9144835628292947</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>475</v>
@@ -3484,19 +3484,19 @@
         <v>493081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>476947</v>
+        <v>478508</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>507237</v>
+        <v>506556</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8979141106348034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8685339346755099</v>
+        <v>0.8713771097068133</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9236938808642703</v>
+        <v>0.9224535967856591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>924</v>
@@ -3505,19 +3505,19 @@
         <v>981123</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>959201</v>
+        <v>959038</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1002073</v>
+        <v>1003058</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8951636114466789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8751617903328083</v>
+        <v>0.8750130733337462</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.914277789634913</v>
+        <v>0.915176559513855</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>531438</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>488284</v>
+        <v>491830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>578081</v>
+        <v>570617</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1573411549905038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1445645683429954</v>
+        <v>0.1456143186136818</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1711503898478518</v>
+        <v>0.1689406392389072</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>525</v>
@@ -3630,19 +3630,19 @@
         <v>611841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>566854</v>
+        <v>566332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>660760</v>
+        <v>665094</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1732229705297858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1604863253131727</v>
+        <v>0.1603385356135373</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1870728067090764</v>
+        <v>0.1882997669345643</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1058</v>
@@ -3651,19 +3651,19 @@
         <v>1143279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1075374</v>
+        <v>1080047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1206235</v>
+        <v>1209550</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1654596000116721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1556320948732302</v>
+        <v>0.1563083381149589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1745707858594632</v>
+        <v>0.1750505296554402</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2846180</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2799537</v>
+        <v>2807001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2889334</v>
+        <v>2885788</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8426588450094962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8288496101521484</v>
+        <v>0.8310593607610929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8554354316570046</v>
+        <v>0.8543856813863182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2801</v>
@@ -3701,19 +3701,19 @@
         <v>2920259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2871340</v>
+        <v>2867006</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2965246</v>
+        <v>2965768</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8267770294702143</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8129271932909237</v>
+        <v>0.8117002330654357</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8395136746868274</v>
+        <v>0.8396614643864626</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5483</v>
@@ -3722,19 +3722,19 @@
         <v>5766439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5703483</v>
+        <v>5700168</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5834344</v>
+        <v>5829671</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.834540399988328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8254292141405367</v>
+        <v>0.8249494703445597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8443679051267695</v>
+        <v>0.8436916618850411</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>300817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>277090</v>
+        <v>274895</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>324522</v>
+        <v>325373</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5199687747142709</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4789552543195831</v>
+        <v>0.4751625800771681</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5609427287223337</v>
+        <v>0.5624145136648129</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>983</v>
@@ -4086,19 +4086,19 @@
         <v>530239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>508321</v>
+        <v>508790</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>551574</v>
+        <v>551365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.645598165875805</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6189107173463976</v>
+        <v>0.619481844333951</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6715741639009279</v>
+        <v>0.6713193425454093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1406</v>
@@ -4107,19 +4107,19 @@
         <v>831057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>799776</v>
+        <v>796879</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>863251</v>
+        <v>864549</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5936779023287787</v>
+        <v>0.5936779023287786</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5713316432684217</v>
+        <v>0.5692625949917576</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6166758832444602</v>
+        <v>0.6176031594689007</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>277712</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254007</v>
+        <v>253156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301439</v>
+        <v>303634</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4800312252857291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4390572712776661</v>
+        <v>0.4375854863351871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.521044745680417</v>
+        <v>0.5248374199228322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>443</v>
@@ -4157,19 +4157,19 @@
         <v>291076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269741</v>
+        <v>269950</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312994</v>
+        <v>312525</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3544018341241951</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3284258360990721</v>
+        <v>0.3286806574545907</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3810892826536027</v>
+        <v>0.3805181556660488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>711</v>
@@ -4178,19 +4178,19 @@
         <v>568788</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>536594</v>
+        <v>535296</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>600069</v>
+        <v>602966</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4063220976712213</v>
+        <v>0.4063220976712212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3833241167555396</v>
+        <v>0.3823968405310993</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4286683567315782</v>
+        <v>0.4307374050082423</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>553150</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>511126</v>
+        <v>508901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>601014</v>
+        <v>596431</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2479864441515188</v>
+        <v>0.2479864441515189</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2291464498356726</v>
+        <v>0.2281489620123889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2694444037283636</v>
+        <v>0.2673899479530668</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>910</v>
@@ -4303,19 +4303,19 @@
         <v>582396</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>544805</v>
+        <v>547000</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>618594</v>
+        <v>621470</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2682131941302226</v>
+        <v>0.2682131941302225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2509012086530473</v>
+        <v>0.2519121191512917</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.28488342121447</v>
+        <v>0.2862083093167258</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1539</v>
@@ -4324,19 +4324,19 @@
         <v>1135546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1073784</v>
+        <v>1083555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1185269</v>
+        <v>1187508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2579638680411686</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2439332393688913</v>
+        <v>0.2461529234894886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2692593293696365</v>
+        <v>0.2697680231713982</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1677416</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1629552</v>
+        <v>1634135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1719440</v>
+        <v>1721665</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7520135558484813</v>
+        <v>0.7520135558484812</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7305555962716366</v>
+        <v>0.7326100520469332</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7708535501643273</v>
+        <v>0.7718510379876112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2011</v>
@@ -4374,19 +4374,19 @@
         <v>1588996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1552798</v>
+        <v>1549922</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1626587</v>
+        <v>1624392</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7317868058697776</v>
+        <v>0.7317868058697773</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7151165787855301</v>
+        <v>0.7137916906832744</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7490987913469527</v>
+        <v>0.7480878808487084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3374</v>
@@ -4395,19 +4395,19 @@
         <v>3266413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3216690</v>
+        <v>3214451</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3328175</v>
+        <v>3318404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7420361319588313</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7307406706303637</v>
+        <v>0.7302319768286019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7560667606311093</v>
+        <v>0.7538470765105115</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>233900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>207268</v>
+        <v>211114</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>259354</v>
+        <v>263138</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3287014882777685</v>
+        <v>0.3287014882777683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2912750265917078</v>
+        <v>0.2966803582763647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3644730041035443</v>
+        <v>0.3697904661246755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>339</v>
@@ -4520,19 +4520,19 @@
         <v>227893</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>206822</v>
+        <v>205760</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250290</v>
+        <v>249552</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3101106896659009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2814369887654995</v>
+        <v>0.2799926832129751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3405874747778307</v>
+        <v>0.3395835526866194</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>610</v>
@@ -4541,19 +4541,19 @@
         <v>461793</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>429372</v>
+        <v>428218</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>498572</v>
+        <v>495002</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3192564190698234</v>
+        <v>0.3192564190698233</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2968427462549124</v>
+        <v>0.2960446281361948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3446830420942615</v>
+        <v>0.3422150269015424</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>477687</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>452233</v>
+        <v>448449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>504319</v>
+        <v>500473</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6712985117222317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6355269958964556</v>
+        <v>0.6302095338753244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7087249734082924</v>
+        <v>0.7033196417236354</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>665</v>
@@ -4591,19 +4591,19 @@
         <v>506984</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>484587</v>
+        <v>485325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>528055</v>
+        <v>529117</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6898893103340991</v>
+        <v>0.6898893103340989</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6594125252221693</v>
+        <v>0.6604164473133806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7185630112345008</v>
+        <v>0.7200073167870249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1075</v>
@@ -4612,19 +4612,19 @@
         <v>984671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>947892</v>
+        <v>951462</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1017092</v>
+        <v>1018246</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6807435809301767</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6553169579057385</v>
+        <v>0.6577849730984572</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7031572537450878</v>
+        <v>0.7039553718638052</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1087867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1027861</v>
+        <v>1028092</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1146041</v>
+        <v>1146154</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3089932348368445</v>
+        <v>0.3089932348368446</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2919493346996775</v>
+        <v>0.2920150545163768</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3255167660841821</v>
+        <v>0.3255488624642991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2232</v>
@@ -4737,19 +4737,19 @@
         <v>1340529</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1290283</v>
+        <v>1292145</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1385954</v>
+        <v>1391989</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.359624000455594</v>
+        <v>0.3596240004555941</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3461444543651193</v>
+        <v>0.3466440009973998</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3718101745387724</v>
+        <v>0.3734292018845062</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3555</v>
@@ -4758,19 +4758,19 @@
         <v>2428396</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2350881</v>
+        <v>2351374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2507418</v>
+        <v>2504099</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3350312451152104</v>
+        <v>0.3350312451152105</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3243369078030414</v>
+        <v>0.3244049695133862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.345933404994045</v>
+        <v>0.3454755043365655</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2432816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2374642</v>
+        <v>2374529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2492822</v>
+        <v>2492591</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6910067651631553</v>
+        <v>0.6910067651631554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6744832339158181</v>
+        <v>0.6744511375357007</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7080506653003225</v>
+        <v>0.7079849454836231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3119</v>
@@ -4808,19 +4808,19 @@
         <v>2387056</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2341631</v>
+        <v>2335596</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2437302</v>
+        <v>2435440</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.640375999544406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6281898254612276</v>
+        <v>0.6265707981154938</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6538555456348808</v>
+        <v>0.6533559990026001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5160</v>
@@ -4829,19 +4829,19 @@
         <v>4819871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4740849</v>
+        <v>4744168</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4897386</v>
+        <v>4896893</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6649687548847895</v>
+        <v>0.6649687548847896</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6540665950059551</v>
+        <v>0.6545244956634344</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6756630921969585</v>
+        <v>0.675595030486614</v>
       </c>
     </row>
     <row r="15">
